--- a/Map/EnemyData1.xlsx
+++ b/Map/EnemyData1.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -389,7 +389,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -403,7 +403,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -417,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
